--- a/z topic1.xlsx
+++ b/z topic1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Belongs to Topic</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Operated by Role</t>
   </si>
   <si>
-    <t>Trained by Employee</t>
-  </si>
-  <si>
     <t>Uses System</t>
   </si>
   <si>
@@ -52,6 +49,12 @@
     <t>Related Document</t>
   </si>
   <si>
+    <t>To Be Signed By</t>
+  </si>
+  <si>
+    <t>Has Signed</t>
+  </si>
+  <si>
     <t>Approved by (filled out by PMO)</t>
   </si>
   <si>
@@ -106,7 +109,7 @@
     <t>Real SOP Writer</t>
   </si>
   <si>
-    <t>DE Counterpart</t>
+    <t>Approver</t>
   </si>
   <si>
     <t>NO Counterpart</t>
@@ -130,7 +133,7 @@
     <t>EB User Development</t>
   </si>
   <si>
-    <t>EB Service Operation (ESO)</t>
+    <t>EB Service Operation</t>
   </si>
   <si>
     <t>EB Network Development</t>
@@ -148,7 +151,7 @@
     <t>COE Purchase</t>
   </si>
   <si>
-    <t>COE Product Experience</t>
+    <t>COE Product Design</t>
   </si>
   <si>
     <t>COE Power Operation</t>
@@ -524,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,13 +639,16 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>29</v>
@@ -666,22 +672,22 @@
         <v>21</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>29</v>
@@ -746,13 +752,16 @@
       <c r="AJ2">
         <v>29</v>
       </c>
+      <c r="AK2">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>65</v>
@@ -776,22 +785,22 @@
         <v>18</v>
       </c>
       <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
         <v>62</v>
       </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>17</v>
-      </c>
       <c r="N3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>65</v>
@@ -812,7 +821,7 @@
         <v>65</v>
       </c>
       <c r="V3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W3">
         <v>62</v>
@@ -827,10 +836,10 @@
         <v>62</v>
       </c>
       <c r="AA3">
+        <v>62</v>
+      </c>
+      <c r="AB3">
         <v>15</v>
-      </c>
-      <c r="AB3">
-        <v>62</v>
       </c>
       <c r="AC3">
         <v>62</v>
@@ -856,13 +865,16 @@
       <c r="AJ3">
         <v>62</v>
       </c>
+      <c r="AK3">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -886,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>18</v>
@@ -966,13 +978,16 @@
       <c r="AJ4">
         <v>18</v>
       </c>
+      <c r="AK4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -996,22 +1011,22 @@
         <v>3</v>
       </c>
       <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>25</v>
       </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
       <c r="N5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>25</v>
@@ -1035,13 +1050,13 @@
         <v>25</v>
       </c>
       <c r="W5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X5">
         <v>10</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -1076,13 +1091,16 @@
       <c r="AJ5">
         <v>10</v>
       </c>
+      <c r="AK5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>26</v>
@@ -1106,22 +1124,22 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>27</v>
@@ -1186,13 +1204,16 @@
       <c r="AJ6">
         <v>27</v>
       </c>
+      <c r="AK6">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -1216,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>24</v>
@@ -1296,13 +1317,16 @@
       <c r="AJ7">
         <v>24</v>
       </c>
+      <c r="AK7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1326,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1335,14 +1359,14 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="O8">
-        <v>8</v>
-      </c>
       <c r="P8">
         <v>8</v>
       </c>
@@ -1406,13 +1430,16 @@
       <c r="AJ8">
         <v>8</v>
       </c>
+      <c r="AK8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1436,22 +1463,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>6</v>
@@ -1472,7 +1499,7 @@
         <v>6</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W9">
         <v>5</v>
@@ -1516,13 +1543,16 @@
       <c r="AJ9">
         <v>5</v>
       </c>
+      <c r="AK9">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -1546,22 +1576,22 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>7</v>
@@ -1594,10 +1624,10 @@
         <v>7</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>7</v>
@@ -1626,13 +1656,16 @@
       <c r="AJ10">
         <v>7</v>
       </c>
+      <c r="AK10">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1656,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1665,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>5</v>
@@ -1704,10 +1737,10 @@
         <v>5</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>5</v>
@@ -1736,233 +1769,242 @@
       <c r="AJ11">
         <v>5</v>
       </c>
+      <c r="AK11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="R12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="S12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="T12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="U12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="V12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="W12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="X12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Y12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AA12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AC12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AD12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AE12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AF12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AG12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AH12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AI12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AJ12">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="AK12">
+        <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="T13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="W13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="X13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AC13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AF13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AG13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AH13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ13">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="AK13">
+        <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -1986,22 +2028,22 @@
         <v>2</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>7</v>
@@ -2034,10 +2076,10 @@
         <v>7</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>7</v>
@@ -2066,13 +2108,16 @@
       <c r="AJ14">
         <v>7</v>
       </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -2096,22 +2141,22 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>17</v>
@@ -2144,10 +2189,10 @@
         <v>17</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>17</v>
@@ -2176,123 +2221,129 @@
       <c r="AJ15">
         <v>17</v>
       </c>
+      <c r="AK15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>10</v>
       </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ16">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AK16">
+        <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:37">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -2316,22 +2367,22 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>8</v>
@@ -2364,10 +2415,10 @@
         <v>8</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>8</v>
@@ -2394,6 +2445,9 @@
         <v>8</v>
       </c>
       <c r="AJ17">
+        <v>8</v>
+      </c>
+      <c r="AK17">
         <v>8</v>
       </c>
     </row>
